--- a/res_nodict/taller.xlsx
+++ b/res_nodict/taller.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Datos mineros', 'de hodrocarburos']</t>
+          <t>['Datos mineros']</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['resultados', 'formularios', 'consultas', 'que', 'También información', 'actividades', 'que', 'tanto con sociedad civil', 'como con funcionarios']</t>
+          <t>['resultados', 'formularios', 'consultas', 'actividades']</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Información Financiera.\n', 'Informacion de Servicios.\n', 'Informacion de Nivel Académico.']</t>
+          <t>['Información Financiera.\n']</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Estadística de las solicitudes de exoneraciones de multas solicitadas a nivel nacional.']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Proyectos', 'Consejos de Desarrollo']</t>
+          <t>['Proyectos']</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['Asistencia Legal Gratuita por Departamento y Municipio']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['Información', 'cantidad de estudiantes inscritos por área geográfica, nivel', 'Información', 'estudiantes desertores', 'Información relativa al sector educativo']</t>
+          <t>['Información', 'Información', 'estudiantes desertores']</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['Ejecución', 'proyectos', ', ranking', 'publicaciones', 'redes sociales', ', capacitaciones', ', informes', 'contrataciones', 'diferentes renglones']</t>
+          <t>['Ejecución', 'proyectos', ', ranking', 'publicaciones', 'redes sociales', ', capacitaciones', ', informes', 'contrataciones']</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['los datos relacionados con los recursos naturales no renovables que se manejan en la institución, así como los servicios prestados a los usuarios de laboratorios técnicos y de otras Direcciones Generales que conforma la Institución']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['Datos', 'proyectos', 'que', 'jornadas', 'desentralizacion']</t>
+          <t>['Datos', 'proyectos', 'jornadas', 'desentralizacion']</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['manera amigable', 'ingresos', ', ingresos privativos', 'que', 'institución', ', sobre los servicios', 'Estadísticas', 'nivel académicos', 'nivel', 'gobierno']</t>
+          <t>['ingresos', ', ingresos privativos', 'institución', 'Estadísticas', 'nivel académicos', 'nivel', 'gobierno']</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['Datos', 'tesis', ', maestrías', ', de semestre', 'índice', 'puestos disponibles', 'trabajo']</t>
+          <t>['Datos', 'tesis', ', maestrías', 'índice', 'puestos disponibles', 'trabajo']</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['* Información financiera', '(compras', ', ingresos', '* Información desagregada', 'que', 'institución', 'Estadísticas', 'nivel académico', 'funciones', 'servidores']</t>
+          <t>['* Información financiera', '(compras', ', ingresos', '* Información desagregada', 'institución', 'Estadísticas', 'nivel académico', 'funciones', 'servidores']</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['Datos relacionados con el que hacer de la institución, que es certeza jurídica en el facturar del despacho del Presidente como Acuerdos Gubernativos', ', Decretos']</t>
+          <t>[', Decretos']</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['Datos', 'acerca de las zonas', 'reserva', 'Estado', 'relación a arrendamientos']</t>
+          <t>['Datos', 'reserva']</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['Clasificación Integrada por Fases de la Inseguridad Alimentaria; Comisiones de Seguridad Alimentaria y Nutricional; Monitoreo de la Desnutrición Aguda; Indicadores de Seguridad Alimentaria y Nutricional; Monitoreo  Comunitario de Conocimientos, Prácticas y Actitudes en SAN']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['Datos de vacunacion']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['STCNS', 'datos', 'información', 'través de análisis', 'coyuntura', 'datos', 'reuniones', 'consejo', 'donde', 'dicha información']</t>
+          <t>['STCNS', 'datos', 'información', 'coyuntura', 'datos', 'reuniones', 'consejo', 'dicha información']</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['- Cantidad', 'aprehensiones', '- Cantidad', 'vehículos recuperados \n- Cantidad de armas incautadas (de fuego, contundentes, armas blancas,', '- Cantidad', 'antecedentes policiales', '- Resultados', 'planes', 'seguridad']</t>
+          <t>['- Cantidad', 'aprehensiones', '- Cantidad', '- Cantidad', 'antecedentes policiales', '- Resultados', 'planes', 'seguridad']</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['Estadísticas', 'cuantas licencias ambientales', ', categoría', 'departamentos', 'que', 'proyecto']</t>
+          <t>['Estadísticas', ', categoría', 'departamentos', 'proyecto']</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['Datos Estadisticos de cada Subsecretaría en cuanto al porcentaje de  subvenciones que maneja cada una.']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['producción institucional', 'datos estadísticos y financieros', 'incautaciones']</t>
+          <t>['producción institucional', 'incautaciones']</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['Datos', 'relación a la participación', 'mujer', 'materia de seguridad']</t>
+          <t>['Datos', 'mujer']</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['Datos', 'avance', 'que', 'como ente', 'rector', 'empleo', ', por medio de los diferentes servicios', 'que', 'ministerio']</t>
+          <t>['Datos', 'avance', 'rector', 'empleo', 'ministerio']</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['Datos', 'frecuencias', 'Radiodifusión', 'así como  numeración']</t>
+          <t>['Datos', 'frecuencias', 'Radiodifusión']</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['Datos', 'carreteras', ', vías', 'comunicación', ', estadísticas', 'programas', 'gasto público', 'respecto a las carreteras', ', viviendas', 'comunicación', 'Guatemala']</t>
+          <t>['Datos', 'carreteras', ', vías', 'comunicación', ', estadísticas', 'programas', 'gasto público', ', viviendas', 'comunicación', 'Guatemala']</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Datos sobre violencia (homicida, asesinatos, extorsiones, etc) desagregados territorialmente y por sexo, etnia, edad, etc de la víctima.', 'Hots spots o áreas territorialmente identificadas en las cuales se concentran ciertos delitos de alto impacto para la población.']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Puntos de Tesis, Bibliográfias, estadísticas.']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Base de datos abiertos nominales sobre seguridad, justicia, trabajo, educación desagregados por beneficiarios por sexo, edad, etnia, departamentos y municipios']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Bases', 'datos', 'formato digital y editable', 'Datos abiertos de distintas instituciones como el INACIF, MP, TSE, Municipalidades']</t>
+          <t>['Bases', 'datos']</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Ejecución presupuestaria', 'tiempo real', 'poblaciones diversas, programas y resultados']</t>
+          <t>['Ejecución presupuestaria', 'tiempo real']</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['cultura', 'denuncia', 'de prevencion', 'problematica']</t>
+          <t>['cultura', 'denuncia', 'problematica']</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Información oportuna de los sucesos ocurridos por desastres']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Información más certera']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Impacto bajo', 'solicitudes', 'institución']</t>
+          <t>['solicitudes', 'institución']</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['información actualizada de los proyectos', 'ejecución']</t>
+          <t>['ejecución']</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['Conocimiento', 'cuanta', 'acceso', 'sector educativo', 'variables', 'desarrollo']</t>
+          <t>['Conocimiento', 'acceso', 'sector educativo', 'variables', 'desarrollo']</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['Mayor apertura', 'servidor público', 'mejor acercamiento', 'ellos', 'Así como una transferencia', 'quien', 'que cargos']</t>
+          <t>['servidor público']</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['proyectos', 'más comunidades', ', el valor', ', tiempo', 'ejecución', 'proveedores', 'ranking', 'información', 'que', 'tipos', 'contrataciones', 'servicios', 'que']</t>
+          <t>['proyectos', ', tiempo', 'ejecución', 'proveedores', 'ranking', 'información', 'tipos', 'contrataciones', 'servicios']</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['Información', 'sectores minero y energético', 'consulta', 'posibles inversionistas', 'fuentes', 'trabajo', 'servicios más efectivos', 'usuarios', 'Institución']</t>
+          <t>['Información', 'consulta', 'posibles inversionistas', 'fuentes', 'trabajo', 'usuarios', 'Institución']</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['información', 'tipo', 'proyectos', 'mismo']</t>
+          <t>['información', 'tipo', 'proyectos']</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['análisis', 'datos', 'producción', 'información importante', 'implementación', 'políticas públicas', 'prevención', 'violencia', 'de seguridad']</t>
+          <t>['análisis', 'datos', 'producción', 'información importante', 'implementación', 'políticas públicas', 'prevención', 'violencia']</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['Información', 'conocimiento', 'logros', ', y programas', 'Pro', 'población']</t>
+          <t>['Información', 'conocimiento', 'logros', 'Pro', 'población']</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['personas interesadas', 'estadísticas', 'incrementos', 'decrementos', 'producción', 'alimentos', ', expertaciones', 'medio ambiente']</t>
+          <t>['personas interesadas', 'estadísticas', 'incrementos', 'decrementos', 'producción', 'alimentos', ', expertaciones']</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['hecho', 'que', 'plataforma', 'donde', 'información clasificada', 'de una manera']</t>
+          <t>['plataforma', 'información clasificada']</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['mano', 'información', 'de los logros', 'que', 'tiempo', 'obligaciones', 'institución']</t>
+          <t>['mano', 'información', 'tiempo', 'obligaciones', 'institución']</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['qué', 'cultura']</t>
+          <t>['cultura']</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['Generaria beneficio al sector público, ya que daría conocimiento a las instituciones  ']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['Mayor transparencia', 'rendición', 'cuentas']</t>
+          <t>['rendición', 'cuentas']</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['Transparencia', 'información', 'relación a zonas', 'reserva', 'Estado', 'arrendamientos']</t>
+          <t>['Transparencia', 'información', 'reserva', 'arrendamientos']</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['Conocimiento de la administración pública a traves de graficas']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['datos digites', 'formatos editables', 'trabajo', 'procesamiento', 'información', 'propuestas efectivas', 'que', 'verdadero impacto']</t>
+          <t>['datos digites', 'formatos editables', 'trabajo', 'procesamiento', 'información', 'propuestas efectivas']</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['Incidencia Política para la toma de decisiones basadas en evidencia; Gestión de proyectos de apoyo a familias en situacion de desnutrición aguda;   Aumento de auditoría social;']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['cantidad', 'reuniones', 'importancia', 'que', 'le', 'nivel', 'consejo', 'seguridad interior y exterior']</t>
+          <t>['cantidad', 'reuniones', 'importancia', 'nivel', 'consejo']</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['Análisis de Información para la efectiva toma de decisiones en materia de seguridad.', 'Mejora', 'percepción ciudadana', 'respecto al trabajo policial']</t>
+          <t>['Mejora', 'percepción ciudadana']</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['Sería de gran interés', ' grupos', 'total', 'actividades económicas', 'país']</t>
+          <t>[' grupos', 'actividades económicas', 'país']</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['población', 'datos excatos  ', 'cuanto a la cantidad', 'niñez', 'adolescencia', 'institución']</t>
+          <t>['población', 'datos excatos  ', 'niñez', 'adolescencia', 'institución']</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['Ninguno, derivado que es información que traslada otras instituciones que conforman CONABED']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['relación a la igualdad', 'equidad', 'género', 'ámbito', 'seguridad']</t>
+          <t>['equidad', 'género', 'ámbito', 'seguridad']</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['Acceso', 'información', 'caso de emergencias', 'ejemplo', 'caso', 'comercializadores', 'celulares', 'tarjetas', 'sim', 'delincuencia', 'comercialización', 'celulares robados', 'extorsiones', 'secuestros']</t>
+          <t>['Acceso', 'información', 'ejemplo', 'caso', 'comercializadores', 'celulares', 'tarjetas', 'sim', 'delincuencia', 'comercialización', 'celulares robados', 'extorsiones', 'secuestros']</t>
         </is>
       </c>
     </row>
